--- a/test.xlsx
+++ b/test.xlsx
@@ -8,94 +8,128 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FMS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0A498D-4B33-49F4-96B0-E6CCE2EF2F8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9796EF5A-F3AE-4E2E-A044-6B865BBE9959}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1127" sheetId="1" r:id="rId1"/>
+    <sheet name="1129" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
-  <si>
-    <t>기관</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>Unnamed: 0</t>
   </si>
   <si>
     <t>빵집</t>
   </si>
   <si>
-    <t>수량</t>
-  </si>
-  <si>
-    <t>개당 가격</t>
-  </si>
-  <si>
-    <t>총 가격</t>
-  </si>
-  <si>
-    <t>원광주간활동센터</t>
+    <t>Unnamed: 2</t>
+  </si>
+  <si>
+    <t>Unnamed: 3</t>
+  </si>
+  <si>
+    <t>Unnamed: 4</t>
+  </si>
+  <si>
+    <t>참된</t>
   </si>
   <si>
     <t>파리바게뜨 익산고래등</t>
   </si>
   <si>
-    <t>청소년수련관</t>
+    <t>던킨도너츠(영등점)</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산원광</t>
+  </si>
+  <si>
+    <t>하랑</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산동부</t>
+  </si>
+  <si>
+    <t>그랜드제과</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 영등점</t>
+  </si>
+  <si>
+    <t>파리바게뜨 부송하나</t>
+  </si>
+  <si>
+    <t>천광</t>
   </si>
   <si>
     <t>파리바게뜨 익산이편한</t>
   </si>
   <si>
-    <t>파리바게뜨 익산동부</t>
+    <t>온스</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산원광</t>
+  </si>
+  <si>
+    <t>야!우리</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산어양</t>
+  </si>
+  <si>
+    <t>뚜레쥬루 익산제일</t>
+  </si>
+  <si>
+    <t>하나로 베이커리(모현점,인화점)</t>
   </si>
   <si>
     <t>파리바게뜨 배산</t>
   </si>
   <si>
+    <t>안영순</t>
+  </si>
+  <si>
+    <t>브레드팜</t>
+  </si>
+  <si>
+    <t>당고</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산부송</t>
+  </si>
+  <si>
+    <t>크리스피크림도넛(영등점)</t>
+  </si>
+  <si>
+    <t>파리바게뜨 부송제일</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 어양점</t>
+  </si>
+  <si>
+    <t>등대</t>
+  </si>
+  <si>
+    <t>니코니코 과자점</t>
+  </si>
+  <si>
     <t>뚜레쥬르 익산동산</t>
   </si>
   <si>
-    <t>파리바게뜨 부송하나</t>
-  </si>
-  <si>
-    <t>파리바게뜨 동산</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산어양</t>
-  </si>
-  <si>
-    <t>쿱스토어전북 어양점</t>
-  </si>
-  <si>
-    <t>영재</t>
-  </si>
-  <si>
-    <t>안영순</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산원광</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산부송</t>
-  </si>
-  <si>
-    <t>목천</t>
-  </si>
-  <si>
-    <t>브레드팜</t>
-  </si>
-  <si>
-    <t>뚜레쥬루 익산제일</t>
-  </si>
-  <si>
-    <t>미소지역아동센터</t>
+    <t>영등</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>꿈꾸는지역아동센터</t>
+    <t>꽃-봉지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남중지역아동센터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -468,16 +502,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -505,61 +539,58 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>130000</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>2000</v>
       </c>
       <c r="E3">
-        <v>146000</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>2000</v>
       </c>
       <c r="E4">
-        <v>16000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>2000</v>
       </c>
       <c r="E5">
-        <v>58000</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -567,13 +598,13 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>2000</v>
       </c>
       <c r="E6">
-        <v>40000</v>
+        <v>62300</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -581,13 +612,13 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>2000</v>
       </c>
       <c r="E7">
-        <v>14000</v>
+        <v>50760</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -595,162 +626,255 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>2000</v>
       </c>
       <c r="E8">
-        <v>4000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="E9">
-        <v>20000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>2000</v>
       </c>
       <c r="E10">
-        <v>88000</v>
+        <v>90400</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>2000</v>
       </c>
       <c r="E11">
-        <v>87710</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>2000</v>
       </c>
       <c r="E12">
-        <v>143800</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>2000</v>
       </c>
       <c r="E13">
-        <v>50000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <v>2000</v>
       </c>
       <c r="E14">
-        <v>8000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="D16">
+        <v>2000</v>
+      </c>
+      <c r="E16">
+        <v>97600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>2000</v>
+      </c>
+      <c r="E17">
         <v>20000</v>
       </c>
-      <c r="E15">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16">
-        <v>40</v>
-      </c>
-      <c r="D16">
-        <v>2000</v>
-      </c>
-      <c r="E16">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
-      <c r="D17">
-        <v>2000</v>
-      </c>
-      <c r="E17">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <v>2000</v>
       </c>
       <c r="E18">
-        <v>2000</v>
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="E19">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>2000</v>
+      </c>
+      <c r="E20">
+        <v>92100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+      <c r="E21">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22">
+        <v>65700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="E23">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>2000</v>
+      </c>
+      <c r="E24">
+        <v>22000</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FMS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9796EF5A-F3AE-4E2E-A044-6B865BBE9959}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02EF73F-6447-44D1-B54E-B66C951206BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1129" sheetId="1" r:id="rId1"/>
+    <sheet name="1130" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -37,37 +37,49 @@
     <t>Unnamed: 4</t>
   </si>
   <si>
-    <t>참된</t>
+    <t>파리바게뜨 익산이편한</t>
   </si>
   <si>
     <t>파리바게뜨 익산고래등</t>
   </si>
   <si>
+    <t>비젼</t>
+  </si>
+  <si>
+    <t>초코</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산어양</t>
+  </si>
+  <si>
+    <t>희망나눔</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 어양점</t>
+  </si>
+  <si>
     <t>던킨도너츠(영등점)</t>
   </si>
   <si>
-    <t>파리바게뜨 익산원광</t>
-  </si>
-  <si>
-    <t>하랑</t>
+    <t>홍윤</t>
+  </si>
+  <si>
+    <t>파리바게뜨 배산</t>
+  </si>
+  <si>
+    <t>참마음</t>
+  </si>
+  <si>
+    <t>파리바게뜨 부송하나</t>
+  </si>
+  <si>
+    <t>크리스피크림도넛(영등점)</t>
   </si>
   <si>
     <t>파리바게뜨 익산동부</t>
   </si>
   <si>
-    <t>그랜드제과</t>
-  </si>
-  <si>
-    <t>쿱스토어전북 영등점</t>
-  </si>
-  <si>
-    <t>파리바게뜨 부송하나</t>
-  </si>
-  <si>
-    <t>천광</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산이편한</t>
+    <t>신동</t>
   </si>
   <si>
     <t>온스</t>
@@ -76,61 +88,7 @@
     <t>뚜레쥬르 익산원광</t>
   </si>
   <si>
-    <t>야!우리</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산어양</t>
-  </si>
-  <si>
-    <t>뚜레쥬루 익산제일</t>
-  </si>
-  <si>
     <t>하나로 베이커리(모현점,인화점)</t>
-  </si>
-  <si>
-    <t>파리바게뜨 배산</t>
-  </si>
-  <si>
-    <t>안영순</t>
-  </si>
-  <si>
-    <t>브레드팜</t>
-  </si>
-  <si>
-    <t>당고</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산부송</t>
-  </si>
-  <si>
-    <t>크리스피크림도넛(영등점)</t>
-  </si>
-  <si>
-    <t>파리바게뜨 부송제일</t>
-  </si>
-  <si>
-    <t>쿱스토어전북 어양점</t>
-  </si>
-  <si>
-    <t>등대</t>
-  </si>
-  <si>
-    <t>니코니코 과자점</t>
-  </si>
-  <si>
-    <t>뚜레쥬르 익산동산</t>
-  </si>
-  <si>
-    <t>영등</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>꽃-봉지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>남중지역아동센터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -502,15 +460,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -533,69 +491,69 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>82000</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D3">
         <v>2000</v>
       </c>
       <c r="E3">
-        <v>68000</v>
+        <v>47200</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>2000</v>
       </c>
       <c r="E4">
-        <v>24000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>2000</v>
       </c>
       <c r="E5">
-        <v>56000</v>
+        <v>65080</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>19</v>
@@ -604,21 +562,21 @@
         <v>2000</v>
       </c>
       <c r="E6">
-        <v>62300</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>2000</v>
       </c>
       <c r="E7">
-        <v>50760</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -626,44 +584,44 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>2000</v>
       </c>
       <c r="E8">
-        <v>14000</v>
+        <v>29500</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+      <c r="E9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
-        <v>27</v>
-      </c>
-      <c r="D9">
-        <v>2000</v>
-      </c>
-      <c r="E9">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>2000</v>
       </c>
       <c r="E10">
-        <v>90400</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -671,44 +629,44 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>2000</v>
       </c>
       <c r="E11">
-        <v>20000</v>
+        <v>29600</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>19</v>
       </c>
-      <c r="C12">
-        <v>23</v>
-      </c>
-      <c r="D12">
-        <v>2000</v>
-      </c>
-      <c r="E12">
-        <v>46000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>2000</v>
       </c>
       <c r="E13">
-        <v>38000</v>
+        <v>106300</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -716,165 +674,27 @@
         <v>21</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>2000</v>
       </c>
       <c r="E14">
-        <v>28000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>2000</v>
       </c>
       <c r="E15">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16">
-        <v>21</v>
-      </c>
-      <c r="D16">
-        <v>2000</v>
-      </c>
-      <c r="E16">
-        <v>97600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>2000</v>
-      </c>
-      <c r="E17">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>2000</v>
-      </c>
-      <c r="E18">
-        <v>54500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19">
-        <v>12</v>
-      </c>
-      <c r="D19">
-        <v>2000</v>
-      </c>
-      <c r="E19">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20">
-        <v>51</v>
-      </c>
-      <c r="D20">
-        <v>2000</v>
-      </c>
-      <c r="E20">
-        <v>92100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>2000</v>
-      </c>
-      <c r="E21">
         <v>12000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>2000</v>
-      </c>
-      <c r="E22">
-        <v>65700</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23">
-        <v>39</v>
-      </c>
-      <c r="D23">
-        <v>2000</v>
-      </c>
-      <c r="E23">
-        <v>78000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-      <c r="D24">
-        <v>2000</v>
-      </c>
-      <c r="E24">
-        <v>22000</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FMS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02EF73F-6447-44D1-B54E-B66C951206BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D590E69D-ECE6-4794-B095-41F26D516C84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1130" sheetId="1" r:id="rId1"/>
+    <sheet name="1201" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -37,58 +37,111 @@
     <t>Unnamed: 4</t>
   </si>
   <si>
-    <t>파리바게뜨 익산이편한</t>
+    <t>발산</t>
+  </si>
+  <si>
+    <t>안영순</t>
+  </si>
+  <si>
+    <t>초코</t>
+  </si>
+  <si>
+    <t>성애모자원</t>
+  </si>
+  <si>
+    <t>그랜드제과</t>
+  </si>
+  <si>
+    <t>크리스피크림도넛 익산모현</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산원광</t>
+  </si>
+  <si>
+    <t>샘솟는</t>
+  </si>
+  <si>
+    <t>오소베이커리</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 영등점</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산원광</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산동부</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산동산</t>
+  </si>
+  <si>
+    <t>니코니코 과자점</t>
+  </si>
+  <si>
+    <t>브레드팜</t>
+  </si>
+  <si>
+    <t>하나로 베이커리(어양점)</t>
+  </si>
+  <si>
+    <t>하나로 베이커리(모현점,인화점)</t>
   </si>
   <si>
     <t>파리바게뜨 익산고래등</t>
   </si>
   <si>
-    <t>비젼</t>
-  </si>
-  <si>
-    <t>초코</t>
+    <t>쿱스토어전북 어양점</t>
   </si>
   <si>
     <t>파리바게뜨 익산어양</t>
   </si>
   <si>
-    <t>희망나눔</t>
-  </si>
-  <si>
-    <t>쿱스토어전북 어양점</t>
-  </si>
-  <si>
-    <t>던킨도너츠(영등점)</t>
+    <t>파리바게뜨 부송제일</t>
+  </si>
+  <si>
+    <t>꿈꾸는</t>
   </si>
   <si>
     <t>홍윤</t>
   </si>
   <si>
+    <t>쿱스토어전북 모현점</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산부송</t>
+  </si>
+  <si>
+    <t>미소</t>
+  </si>
+  <si>
+    <t>온스베이커리</t>
+  </si>
+  <si>
     <t>파리바게뜨 배산</t>
   </si>
   <si>
-    <t>참마음</t>
+    <t>목천</t>
+  </si>
+  <si>
+    <t>눈들재</t>
+  </si>
+  <si>
+    <t>크리스피크림도넛(영등점)</t>
+  </si>
+  <si>
+    <t>뚜레쥬루 익산제일</t>
   </si>
   <si>
     <t>파리바게뜨 부송하나</t>
   </si>
   <si>
-    <t>크리스피크림도넛(영등점)</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산동부</t>
-  </si>
-  <si>
-    <t>신동</t>
-  </si>
-  <si>
-    <t>온스</t>
-  </si>
-  <si>
-    <t>뚜레쥬르 익산원광</t>
-  </si>
-  <si>
-    <t>하나로 베이커리(모현점,인화점)</t>
+    <t>늘감사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한사랑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -460,15 +513,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -491,137 +544,137 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>66000</v>
+        <v>89000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>2000</v>
-      </c>
-      <c r="E3">
-        <v>47200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>2000</v>
       </c>
       <c r="E4">
-        <v>40000</v>
+        <v>87700</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
       <c r="C5">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>2000</v>
       </c>
       <c r="E5">
-        <v>65080</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>2000</v>
-      </c>
-      <c r="E6">
-        <v>38000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>2000</v>
       </c>
       <c r="E7">
-        <v>80000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
       <c r="D8">
         <v>2000</v>
       </c>
       <c r="E8">
-        <v>29500</v>
+        <v>42410</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>2000</v>
       </c>
       <c r="E9">
-        <v>10000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>2000</v>
       </c>
       <c r="E10">
-        <v>14000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -629,77 +682,298 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="E11">
-        <v>29600</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>2000</v>
       </c>
       <c r="E12">
-        <v>56000</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
       <c r="C13">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>2000</v>
       </c>
       <c r="E13">
-        <v>106300</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>2000</v>
       </c>
       <c r="E14">
-        <v>2000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="C15">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>20000</v>
+      </c>
+      <c r="E16">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>2000</v>
+      </c>
+      <c r="E17">
+        <v>125430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="E19">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2000</v>
+      </c>
+      <c r="E20">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+      <c r="E21">
+        <v>54500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22">
+        <v>68480</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="E23">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>2000</v>
+      </c>
+      <c r="E24">
+        <v>94400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>2000</v>
+      </c>
+      <c r="E25">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>2000</v>
+      </c>
+      <c r="E26">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>2000</v>
+      </c>
+      <c r="E27">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>2000</v>
+      </c>
+      <c r="E28">
+        <v>39400</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>2000</v>
+      </c>
+      <c r="E29">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
         <v>6</v>
       </c>
-      <c r="D15">
-        <v>2000</v>
-      </c>
-      <c r="E15">
+      <c r="D30">
+        <v>2000</v>
+      </c>
+      <c r="E30">
         <v>12000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FMS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D590E69D-ECE6-4794-B095-41F26D516C84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0533D390-A5D7-43E2-9DED-53469210AD92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1201" sheetId="1" r:id="rId1"/>
+    <sheet name="1218" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -37,110 +37,83 @@
     <t>Unnamed: 4</t>
   </si>
   <si>
-    <t>발산</t>
+    <t>파리바게뜨 동산</t>
+  </si>
+  <si>
+    <t>던킨도너츠(영등점)</t>
+  </si>
+  <si>
+    <t>참된</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산동산</t>
   </si>
   <si>
     <t>안영순</t>
   </si>
   <si>
-    <t>초코</t>
-  </si>
-  <si>
-    <t>성애모자원</t>
-  </si>
-  <si>
-    <t>그랜드제과</t>
+    <t>희망나눔</t>
   </si>
   <si>
     <t>크리스피크림도넛 익산모현</t>
   </si>
   <si>
+    <t>신동</t>
+  </si>
+  <si>
+    <t>크리스피크림도넛(영등점)</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산부송</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산고래등</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산이편한</t>
+  </si>
+  <si>
+    <t>평화디딤돌</t>
+  </si>
+  <si>
+    <t>파리바게뜨 부송제일</t>
+  </si>
+  <si>
+    <t>홍윤</t>
+  </si>
+  <si>
+    <t>삼육</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 어양점</t>
+  </si>
+  <si>
+    <t>파리바게뜨 부송하나</t>
+  </si>
+  <si>
+    <t>천광</t>
+  </si>
+  <si>
+    <t>니코니코 과자점</t>
+  </si>
+  <si>
     <t>파리바게뜨 익산원광</t>
   </si>
   <si>
-    <t>샘솟는</t>
-  </si>
-  <si>
-    <t>오소베이커리</t>
-  </si>
-  <si>
-    <t>쿱스토어전북 영등점</t>
-  </si>
-  <si>
-    <t>뚜레쥬르 익산원광</t>
-  </si>
-  <si>
     <t>파리바게뜨 익산동부</t>
   </si>
   <si>
-    <t>뚜레쥬르 익산동산</t>
-  </si>
-  <si>
-    <t>니코니코 과자점</t>
-  </si>
-  <si>
-    <t>브레드팜</t>
-  </si>
-  <si>
-    <t>하나로 베이커리(어양점)</t>
-  </si>
-  <si>
-    <t>하나로 베이커리(모현점,인화점)</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산고래등</t>
-  </si>
-  <si>
-    <t>쿱스토어전북 어양점</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산어양</t>
-  </si>
-  <si>
-    <t>파리바게뜨 부송제일</t>
-  </si>
-  <si>
-    <t>꿈꾸는</t>
-  </si>
-  <si>
-    <t>홍윤</t>
-  </si>
-  <si>
-    <t>쿱스토어전북 모현점</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산부송</t>
-  </si>
-  <si>
-    <t>미소</t>
-  </si>
-  <si>
-    <t>온스베이커리</t>
+    <t>하랑</t>
   </si>
   <si>
     <t>파리바게뜨 배산</t>
-  </si>
-  <si>
-    <t>목천</t>
-  </si>
-  <si>
-    <t>눈들재</t>
-  </si>
-  <si>
-    <t>크리스피크림도넛(영등점)</t>
-  </si>
-  <si>
-    <t>뚜레쥬루 익산제일</t>
-  </si>
-  <si>
-    <t>파리바게뜨 부송하나</t>
   </si>
   <si>
     <t>늘감사</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>한사랑</t>
+    <t>한사랑지역아동센터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -513,15 +486,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -544,432 +517,281 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>89000</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D3">
         <v>2000</v>
       </c>
       <c r="E3">
-        <v>49000</v>
+        <v>213000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D4">
         <v>2000</v>
       </c>
       <c r="E4">
-        <v>87700</v>
+        <v>148000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <v>63100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
         <v>8</v>
       </c>
-      <c r="D5">
-        <v>2000</v>
-      </c>
-      <c r="E5">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>11</v>
-      </c>
-      <c r="D6">
-        <v>2000</v>
-      </c>
-      <c r="E6">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>22</v>
-      </c>
       <c r="D7">
         <v>2000</v>
       </c>
       <c r="E7">
-        <v>44000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="D8">
         <v>2000</v>
       </c>
       <c r="E8">
-        <v>42410</v>
+        <v>186000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="D9">
         <v>2000</v>
       </c>
       <c r="E9">
-        <v>18000</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2000</v>
       </c>
       <c r="E10">
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="E11">
-        <v>20000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>2000</v>
       </c>
       <c r="E12">
-        <v>104000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
       <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13">
         <v>19</v>
       </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
       <c r="D13">
         <v>2000</v>
       </c>
       <c r="E13">
-        <v>30000</v>
+        <v>77310</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14">
         <v>2000</v>
       </c>
       <c r="E14">
-        <v>22000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D15">
         <v>2000</v>
       </c>
       <c r="E15">
-        <v>18000</v>
+        <v>86000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="E16">
-        <v>20000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C17">
+        <v>18</v>
+      </c>
+      <c r="D17">
+        <v>2000</v>
+      </c>
+      <c r="E17">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="D17">
-        <v>2000</v>
-      </c>
-      <c r="E17">
-        <v>125430</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D18">
         <v>2000</v>
       </c>
       <c r="E18">
-        <v>50000</v>
+        <v>158000</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>2000</v>
       </c>
       <c r="E19">
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>2000</v>
-      </c>
-      <c r="E20">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>18</v>
-      </c>
-      <c r="D21">
-        <v>2000</v>
-      </c>
-      <c r="E21">
-        <v>54500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22">
-        <v>16</v>
-      </c>
-      <c r="D22">
-        <v>2000</v>
-      </c>
-      <c r="E22">
-        <v>68480</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>28</v>
-      </c>
-      <c r="D23">
-        <v>2000</v>
-      </c>
-      <c r="E23">
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24">
-        <v>34</v>
-      </c>
-      <c r="D24">
-        <v>2000</v>
-      </c>
-      <c r="E24">
-        <v>94400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>2000</v>
-      </c>
-      <c r="E25">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>2000</v>
-      </c>
-      <c r="E26">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27">
-        <v>27</v>
-      </c>
-      <c r="D27">
-        <v>2000</v>
-      </c>
-      <c r="E27">
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28">
-        <v>18</v>
-      </c>
-      <c r="D28">
-        <v>2000</v>
-      </c>
-      <c r="E28">
-        <v>39400</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>2000</v>
-      </c>
-      <c r="E29">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>2000</v>
-      </c>
-      <c r="E30">
-        <v>12000</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FMS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0533D390-A5D7-43E2-9DED-53469210AD92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F7E5D1-B4CB-44AE-BA1F-2D12E2D10DA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1218" sheetId="1" r:id="rId1"/>
+    <sheet name="0116" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -37,83 +37,91 @@
     <t>Unnamed: 4</t>
   </si>
   <si>
-    <t>파리바게뜨 동산</t>
+    <t>예손</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 어양점</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산어양</t>
+  </si>
+  <si>
+    <t>그랜드제과</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산이편한</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산부송</t>
+  </si>
+  <si>
+    <t>푸른교실</t>
+  </si>
+  <si>
+    <t>안영순</t>
+  </si>
+  <si>
+    <t>파리바게뜨 배산</t>
+  </si>
+  <si>
+    <t>샘솟는</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 모현점</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산원광</t>
+  </si>
+  <si>
+    <t>하랑</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산동산</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산원광</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산고래등</t>
+  </si>
+  <si>
+    <t>브레드팜</t>
+  </si>
+  <si>
+    <t>던킨도너츠 익산역점</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 영등점</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산동부</t>
+  </si>
+  <si>
+    <t>영재</t>
+  </si>
+  <si>
+    <t>크리스피크림도넛(영등점)</t>
   </si>
   <si>
     <t>던킨도너츠(영등점)</t>
   </si>
   <si>
-    <t>참된</t>
-  </si>
-  <si>
-    <t>뚜레쥬르 익산동산</t>
-  </si>
-  <si>
-    <t>안영순</t>
-  </si>
-  <si>
-    <t>희망나눔</t>
-  </si>
-  <si>
-    <t>크리스피크림도넛 익산모현</t>
-  </si>
-  <si>
-    <t>신동</t>
-  </si>
-  <si>
-    <t>크리스피크림도넛(영등점)</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산부송</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산고래등</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산이편한</t>
-  </si>
-  <si>
-    <t>평화디딤돌</t>
-  </si>
-  <si>
-    <t>파리바게뜨 부송제일</t>
-  </si>
-  <si>
-    <t>홍윤</t>
-  </si>
-  <si>
-    <t>삼육</t>
-  </si>
-  <si>
-    <t>쿱스토어전북 어양점</t>
-  </si>
-  <si>
-    <t>파리바게뜨 부송하나</t>
-  </si>
-  <si>
-    <t>천광</t>
+    <t>눈들재</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산제일</t>
+  </si>
+  <si>
+    <t>옥야</t>
   </si>
   <si>
     <t>니코니코 과자점</t>
   </si>
   <si>
-    <t>파리바게뜨 익산원광</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산동부</t>
-  </si>
-  <si>
-    <t>하랑</t>
-  </si>
-  <si>
-    <t>파리바게뜨 배산</t>
-  </si>
-  <si>
-    <t>늘감사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한사랑지역아동센터</t>
+    <t>하나로 베이커리(모현점,인화점)</t>
+  </si>
+  <si>
+    <t>남중지역아동센터</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -486,16 +494,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -517,143 +527,137 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>104000</v>
+        <v>96350</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>43</v>
-      </c>
-      <c r="D3">
-        <v>2000</v>
-      </c>
-      <c r="E3">
-        <v>213000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>74</v>
-      </c>
       <c r="D4">
         <v>2000</v>
       </c>
       <c r="E4">
-        <v>148000</v>
+        <v>32200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>18</v>
-      </c>
-      <c r="D5">
-        <v>2000</v>
-      </c>
-      <c r="E5">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+      <c r="E7">
+        <v>241800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C6">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>2000</v>
-      </c>
-      <c r="E6">
-        <v>63100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>2000</v>
-      </c>
-      <c r="E7">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
       <c r="C8">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>2000</v>
       </c>
       <c r="E8">
-        <v>186000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>2000</v>
       </c>
       <c r="E9">
-        <v>110000</v>
+        <v>59360</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>2000</v>
       </c>
       <c r="E10">
-        <v>10000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -664,13 +668,13 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>2000</v>
       </c>
       <c r="E11">
-        <v>40000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -678,7 +682,7 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D12">
         <v>2000</v>
@@ -688,114 +692,213 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+      <c r="E13">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>2000</v>
-      </c>
-      <c r="E13">
-        <v>77310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="C14">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>2000</v>
+      </c>
+      <c r="E14">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>2000</v>
-      </c>
-      <c r="E14">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
       <c r="C15">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>2000</v>
       </c>
       <c r="E15">
-        <v>86000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16">
         <v>2000</v>
       </c>
       <c r="E16">
-        <v>38000</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>2000</v>
+      </c>
+      <c r="E17">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>20000</v>
+      </c>
+      <c r="E18">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C17">
-        <v>18</v>
-      </c>
-      <c r="D17">
-        <v>2000</v>
-      </c>
-      <c r="E17">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="E19">
+        <v>33100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>2000</v>
+      </c>
+      <c r="E20">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C18">
-        <v>79</v>
-      </c>
-      <c r="D18">
-        <v>2000</v>
-      </c>
-      <c r="E18">
-        <v>158000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
+      <c r="C21">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+      <c r="E21">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="D19">
-        <v>2000</v>
-      </c>
-      <c r="E19">
-        <v>2000</v>
+      <c r="D22">
+        <v>20000</v>
+      </c>
+      <c r="E22">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="E23">
+        <v>84000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>2000</v>
+      </c>
+      <c r="E24">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>2000</v>
+      </c>
+      <c r="E25">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>20000</v>
+      </c>
+      <c r="E26">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FMS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F7E5D1-B4CB-44AE-BA1F-2D12E2D10DA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1E352D-1B70-404A-8793-A133C1C4F501}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0116" sheetId="1" r:id="rId1"/>
+    <sheet name="0126" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -37,88 +37,103 @@
     <t>Unnamed: 4</t>
   </si>
   <si>
+    <t>성애모자원</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산어양</t>
+  </si>
+  <si>
+    <t>발산</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산고래등</t>
+  </si>
+  <si>
+    <t>하나로 베이커리 인화점</t>
+  </si>
+  <si>
+    <t>평화디딤돌</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 모현점</t>
+  </si>
+  <si>
+    <t>파리바게뜨 부송제일</t>
+  </si>
+  <si>
     <t>예손</t>
   </si>
   <si>
+    <t>뚜레쥬르 익산동산</t>
+  </si>
+  <si>
+    <t>던킨도너츠 익산역점</t>
+  </si>
+  <si>
+    <t>던킨도너츠(영등점)</t>
+  </si>
+  <si>
+    <t>브레드팜</t>
+  </si>
+  <si>
+    <t>오소베이커리</t>
+  </si>
+  <si>
     <t>쿱스토어전북 어양점</t>
   </si>
   <si>
-    <t>파리바게뜨 익산어양</t>
+    <t>하랑</t>
   </si>
   <si>
     <t>그랜드제과</t>
   </si>
   <si>
+    <t>니코니코 과자점</t>
+  </si>
+  <si>
+    <t>눈들재</t>
+  </si>
+  <si>
+    <t>파리바게뜨 동산</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산영등점</t>
+  </si>
+  <si>
+    <t>영재</t>
+  </si>
+  <si>
+    <t>안영순</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산제일</t>
+  </si>
+  <si>
+    <t>옥야</t>
+  </si>
+  <si>
+    <t>크리스피크림도넛 익산모현</t>
+  </si>
+  <si>
     <t>파리바게뜨 익산이편한</t>
   </si>
   <si>
-    <t>파리바게뜨 익산부송</t>
-  </si>
-  <si>
-    <t>푸른교실</t>
-  </si>
-  <si>
-    <t>안영순</t>
+    <t>희망나눔</t>
+  </si>
+  <si>
+    <t>홍윤</t>
   </si>
   <si>
     <t>파리바게뜨 배산</t>
   </si>
   <si>
-    <t>샘솟는</t>
-  </si>
-  <si>
-    <t>쿱스토어전북 모현점</t>
-  </si>
-  <si>
     <t>뚜레쥬르 익산원광</t>
   </si>
   <si>
-    <t>하랑</t>
-  </si>
-  <si>
-    <t>뚜레쥬르 익산동산</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산원광</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산고래등</t>
-  </si>
-  <si>
-    <t>브레드팜</t>
-  </si>
-  <si>
-    <t>던킨도너츠 익산역점</t>
-  </si>
-  <si>
-    <t>쿱스토어전북 영등점</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산동부</t>
-  </si>
-  <si>
-    <t>영재</t>
-  </si>
-  <si>
     <t>크리스피크림도넛(영등점)</t>
   </si>
   <si>
-    <t>던킨도너츠(영등점)</t>
-  </si>
-  <si>
-    <t>눈들재</t>
-  </si>
-  <si>
-    <t>뚜레쥬르 익산제일</t>
-  </si>
-  <si>
-    <t>옥야</t>
-  </si>
-  <si>
-    <t>니코니코 과자점</t>
-  </si>
-  <si>
-    <t>하나로 베이커리(모현점,인화점)</t>
+    <t>파리바게뜨 부송하나</t>
   </si>
   <si>
     <t>남중지역아동센터</t>
@@ -494,18 +509,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -533,148 +546,148 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>96350</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>2000</v>
       </c>
       <c r="E3">
-        <v>62000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>2000</v>
       </c>
       <c r="E4">
-        <v>32200</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>2000</v>
       </c>
       <c r="E5">
-        <v>30000</v>
+        <v>87000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>2000</v>
       </c>
       <c r="E6">
-        <v>20000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>2000</v>
       </c>
       <c r="E7">
-        <v>241800</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>2000</v>
       </c>
       <c r="E8">
-        <v>10000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>2000</v>
       </c>
       <c r="E9">
-        <v>59360</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D10">
         <v>2000</v>
       </c>
       <c r="E10">
-        <v>48000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>2000</v>
       </c>
       <c r="E11">
-        <v>28000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -682,58 +695,61 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>2000</v>
       </c>
       <c r="E12">
-        <v>48000</v>
+        <v>95670</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="E13">
-        <v>16000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>2000</v>
       </c>
       <c r="E14">
-        <v>62000</v>
+        <v>110400</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>2000</v>
       </c>
       <c r="E15">
-        <v>26000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -741,13 +757,13 @@
         <v>23</v>
       </c>
       <c r="C16">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>2000</v>
       </c>
       <c r="E16">
-        <v>55000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -755,18 +771,18 @@
         <v>24</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D17">
         <v>2000</v>
       </c>
       <c r="E17">
-        <v>12000</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -780,120 +796,179 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D19">
         <v>2000</v>
       </c>
       <c r="E19">
-        <v>33100</v>
+        <v>138600</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20">
+        <v>2000</v>
+      </c>
+      <c r="E20">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
         <v>27</v>
       </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="D20">
-        <v>2000</v>
-      </c>
-      <c r="E20">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21">
-        <v>23</v>
-      </c>
       <c r="D21">
         <v>2000</v>
       </c>
       <c r="E21">
-        <v>46000</v>
+        <v>46300</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C22">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>20000</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>20000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23">
-        <v>42</v>
-      </c>
-      <c r="D23">
-        <v>2000</v>
-      </c>
-      <c r="E23">
-        <v>84000</v>
-      </c>
-    </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>2000</v>
       </c>
       <c r="E24">
-        <v>24000</v>
+        <v>88700</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D25">
         <v>2000</v>
       </c>
       <c r="E25">
-        <v>10000</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>2000</v>
+      </c>
+      <c r="E26">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2000</v>
+      </c>
+      <c r="E27">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>2000</v>
+      </c>
+      <c r="E28">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="D29">
         <v>20000</v>
       </c>
-      <c r="E26">
+      <c r="E29">
         <v>20000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>2000</v>
+      </c>
+      <c r="E30">
+        <v>30000</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20406"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FMS_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1E352D-1B70-404A-8793-A133C1C4F501}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4286DF6B-7BD0-46D7-AF64-2CC900EF0ECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0126" sheetId="1" r:id="rId1"/>
+    <sheet name="0216" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -37,106 +38,104 @@
     <t>Unnamed: 4</t>
   </si>
   <si>
-    <t>성애모자원</t>
+    <t>백세요양원</t>
+  </si>
+  <si>
+    <t>신동</t>
+  </si>
+  <si>
+    <t>야!우리</t>
+  </si>
+  <si>
+    <t>홍윤</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 모현점</t>
+  </si>
+  <si>
+    <t>눈들재</t>
+  </si>
+  <si>
+    <t>안영순</t>
+  </si>
+  <si>
+    <t>니코니코 과자점</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산동산</t>
+  </si>
+  <si>
+    <t>크리스피크림도넛(영등점)</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산제일</t>
+  </si>
+  <si>
+    <t>브레드팜</t>
+  </si>
+  <si>
+    <t>당고</t>
+  </si>
+  <si>
+    <t>그랜드제과</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 어양점</t>
+  </si>
+  <si>
+    <t>파리바게뜨 부송하나</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산이편한</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산원광</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산영등점</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산원광</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산부송</t>
+  </si>
+  <si>
+    <t>파리바게뜨 배산</t>
+  </si>
+  <si>
+    <t>던킨도너츠(영등점)</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산고래등</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산동부</t>
+  </si>
+  <si>
+    <t>던킨도너츠 익산역점</t>
   </si>
   <si>
     <t>파리바게뜨 익산어양</t>
   </si>
   <si>
-    <t>발산</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산고래등</t>
-  </si>
-  <si>
-    <t>하나로 베이커리 인화점</t>
-  </si>
-  <si>
-    <t>평화디딤돌</t>
-  </si>
-  <si>
-    <t>쿱스토어전북 모현점</t>
-  </si>
-  <si>
-    <t>파리바게뜨 부송제일</t>
-  </si>
-  <si>
-    <t>예손</t>
-  </si>
-  <si>
-    <t>뚜레쥬르 익산동산</t>
-  </si>
-  <si>
-    <t>던킨도너츠 익산역점</t>
-  </si>
-  <si>
-    <t>던킨도너츠(영등점)</t>
-  </si>
-  <si>
-    <t>브레드팜</t>
-  </si>
-  <si>
-    <t>오소베이커리</t>
-  </si>
-  <si>
-    <t>쿱스토어전북 어양점</t>
-  </si>
-  <si>
-    <t>하랑</t>
-  </si>
-  <si>
-    <t>그랜드제과</t>
-  </si>
-  <si>
-    <t>니코니코 과자점</t>
-  </si>
-  <si>
-    <t>눈들재</t>
-  </si>
-  <si>
-    <t>파리바게뜨 동산</t>
-  </si>
-  <si>
-    <t>뚜레쥬르 익산영등점</t>
-  </si>
-  <si>
-    <t>영재</t>
-  </si>
-  <si>
-    <t>안영순</t>
-  </si>
-  <si>
-    <t>뚜레쥬르 익산제일</t>
-  </si>
-  <si>
-    <t>옥야</t>
-  </si>
-  <si>
-    <t>크리스피크림도넛 익산모현</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산이편한</t>
-  </si>
-  <si>
-    <t>희망나눔</t>
-  </si>
-  <si>
-    <t>홍윤</t>
-  </si>
-  <si>
-    <t>파리바게뜨 배산</t>
-  </si>
-  <si>
-    <t>뚜레쥬르 익산원광</t>
-  </si>
-  <si>
-    <t>크리스피크림도넛(영등점)</t>
-  </si>
-  <si>
-    <t>파리바게뜨 부송하나</t>
-  </si>
-  <si>
-    <t>남중지역아동센터</t>
+    <t>아바림요양원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더조은요양원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>드림요양원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃-봉지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영등</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -155,9 +154,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -225,7 +225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -267,7 +267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,9 +299,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,6 +351,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -509,16 +545,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -543,64 +579,61 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>42000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D3">
         <v>2000</v>
       </c>
       <c r="E3">
-        <v>30000</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>2000</v>
       </c>
       <c r="E4">
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>2000</v>
       </c>
       <c r="E5">
-        <v>87000</v>
+        <v>38300</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -608,105 +641,105 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>2000</v>
       </c>
       <c r="E6">
-        <v>8000</v>
+        <v>154000</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
       <c r="C7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>2000</v>
       </c>
       <c r="E7">
-        <v>12000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>2000</v>
       </c>
       <c r="E8">
-        <v>14000</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>20000</v>
+      </c>
+      <c r="E9">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-      <c r="D9">
-        <v>2000</v>
-      </c>
-      <c r="E9">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
       <c r="C10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>2000</v>
       </c>
       <c r="E10">
-        <v>36000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>2000</v>
       </c>
       <c r="E11">
-        <v>16000</v>
+        <v>44000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12">
         <v>2000</v>
       </c>
       <c r="E12">
-        <v>95670</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -720,260 +753,288 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <v>2000</v>
       </c>
       <c r="E14">
-        <v>110400</v>
+        <v>25900</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>2000</v>
       </c>
       <c r="E15">
-        <v>44000</v>
+        <v>77890</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>2000</v>
       </c>
       <c r="E16">
-        <v>62000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
         <v>24</v>
       </c>
-      <c r="C17">
-        <v>11</v>
-      </c>
       <c r="D17">
         <v>2000</v>
       </c>
       <c r="E17">
-        <v>22000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>20000</v>
+      </c>
+      <c r="E19">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>2000</v>
+      </c>
+      <c r="E20">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>20000</v>
-      </c>
-      <c r="E18">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19">
-        <v>28</v>
-      </c>
-      <c r="D19">
-        <v>2000</v>
-      </c>
-      <c r="E19">
-        <v>138600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
-      </c>
-      <c r="D20">
-        <v>2000</v>
-      </c>
-      <c r="E20">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
       <c r="C21">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>2000</v>
       </c>
       <c r="E21">
-        <v>46300</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C22">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>2000</v>
       </c>
       <c r="E22">
-        <v>46000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="E23">
-        <v>20000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D24">
         <v>2000</v>
       </c>
       <c r="E24">
-        <v>88700</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>2000</v>
       </c>
       <c r="E25">
-        <v>56000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="D26">
         <v>2000</v>
       </c>
       <c r="E26">
-        <v>18000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <v>2000</v>
       </c>
       <c r="E27">
-        <v>4000</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <v>2000</v>
       </c>
       <c r="E28">
-        <v>31500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>20000</v>
-      </c>
-      <c r="E29">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30">
-        <v>15</v>
-      </c>
-      <c r="D30">
-        <v>2000</v>
-      </c>
-      <c r="E30">
-        <v>30000</v>
+        <v>64900</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192E85D0-9B09-4D70-A72C-E7FD2CF4BF8D}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\FMS_Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50F19F8-38F2-4F66-84A6-5D173AFF1A91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="0308" sheetId="1" r:id="rId1"/>
+    <sheet name="0910" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -37,30 +31,123 @@
     <t>Unnamed: 4</t>
   </si>
   <si>
-    <t>목천</t>
+    <t>하랑지역아동센터</t>
+  </si>
+  <si>
+    <t>해바라기주간보호센터</t>
+  </si>
+  <si>
+    <t>한사랑지역아동센터</t>
+  </si>
+  <si>
+    <t>구세군배산</t>
+  </si>
+  <si>
+    <t>신동지역아동센터</t>
+  </si>
+  <si>
+    <t>건강가정다문화가족지원센터</t>
+  </si>
+  <si>
+    <t>천광지역아동센터</t>
+  </si>
+  <si>
+    <t>예손지역아동센터</t>
+  </si>
+  <si>
+    <t>원광주간활동센터</t>
+  </si>
+  <si>
+    <t>옥야지역아동센터</t>
+  </si>
+  <si>
+    <t>늘감사지역아동센터</t>
+  </si>
+  <si>
+    <t>전북보성원</t>
+  </si>
+  <si>
+    <t>늘사랑</t>
+  </si>
+  <si>
+    <t>비젼지역아동센터</t>
+  </si>
+  <si>
+    <t>매장</t>
+  </si>
+  <si>
+    <t>그랜드제과</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산부송</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 어양점</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산제일</t>
+  </si>
+  <si>
+    <t>크리스피크림도넛(영등점)</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산어양</t>
+  </si>
+  <si>
+    <t>던킨도너츠(영등점)</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산원광</t>
   </si>
   <si>
     <t>뚜레쥬르 익산동산</t>
   </si>
   <si>
-    <t>파리바게뜨 익산부송</t>
-  </si>
-  <si>
-    <t>그랜드제과</t>
-  </si>
-  <si>
-    <t>던킨도너츠(영등점)</t>
+    <t>파리바게뜨 부송하나</t>
+  </si>
+  <si>
+    <t>파리바게뜨 부송제일</t>
+  </si>
+  <si>
+    <t>눈들재</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산영등점</t>
+  </si>
+  <si>
+    <t>니코니코 과자점</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산이편한</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 모현점</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산고래등</t>
+  </si>
+  <si>
+    <t>던킨도너츠 익산역점</t>
+  </si>
+  <si>
+    <t>던킨도너츠 원광</t>
+  </si>
+  <si>
+    <t>안영순</t>
+  </si>
+  <si>
+    <t>삼송빵집</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -68,15 +155,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -122,23 +202,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -180,7 +252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,27 +284,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,24 +318,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,19 +493,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,26 +517,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>72734</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -514,40 +545,360 @@
         <v>2000</v>
       </c>
       <c r="E3">
-        <v>43600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>98350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <v>42455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+      <c r="E7">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="D8">
+        <v>2000</v>
+      </c>
+      <c r="E8">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>2000</v>
+      </c>
+      <c r="E9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2000</v>
+      </c>
+      <c r="E10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>2000</v>
-      </c>
-      <c r="E4">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>2000</v>
+      </c>
+      <c r="E11">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>37</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+      <c r="E13">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>2000</v>
-      </c>
-      <c r="E5">
-        <v>2000</v>
+      <c r="D14">
+        <v>20000</v>
+      </c>
+      <c r="E14">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>39</v>
+      </c>
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>2000</v>
+      </c>
+      <c r="E16">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>2000</v>
+      </c>
+      <c r="E17">
+        <v>63650</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="E18">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="E19">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>2000</v>
+      </c>
+      <c r="E20">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+      <c r="E21">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="E22">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="E23">
+        <v>573550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>2000</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25">
+        <v>2000</v>
+      </c>
+      <c r="E25">
+        <v>17100</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="0910" sheetId="1" r:id="rId1"/>
+    <sheet name="0913" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -31,112 +31,94 @@
     <t>Unnamed: 4</t>
   </si>
   <si>
-    <t>하랑지역아동센터</t>
-  </si>
-  <si>
-    <t>해바라기주간보호센터</t>
-  </si>
-  <si>
-    <t>한사랑지역아동센터</t>
-  </si>
-  <si>
-    <t>구세군배산</t>
-  </si>
-  <si>
-    <t>신동지역아동센터</t>
-  </si>
-  <si>
-    <t>건강가정다문화가족지원센터</t>
-  </si>
-  <si>
-    <t>천광지역아동센터</t>
-  </si>
-  <si>
-    <t>예손지역아동센터</t>
-  </si>
-  <si>
-    <t>원광주간활동센터</t>
+    <t>남중지역아동센터</t>
+  </si>
+  <si>
+    <t>늘사랑</t>
+  </si>
+  <si>
+    <t>덕암</t>
+  </si>
+  <si>
+    <t>삼육지역아동센터</t>
+  </si>
+  <si>
+    <t>새소망단기보호시설</t>
+  </si>
+  <si>
+    <t>새소망주간보호시설</t>
+  </si>
+  <si>
+    <t>영재지역아동센터</t>
   </si>
   <si>
     <t>옥야지역아동센터</t>
   </si>
   <si>
-    <t>늘감사지역아동센터</t>
-  </si>
-  <si>
-    <t>전북보성원</t>
-  </si>
-  <si>
-    <t>늘사랑</t>
-  </si>
-  <si>
-    <t>비젼지역아동센터</t>
-  </si>
-  <si>
-    <t>매장</t>
+    <t>이리성애모자원</t>
+  </si>
+  <si>
+    <t>니코니코 과자점</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산어양</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산제일</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산이편한</t>
+  </si>
+  <si>
+    <t>오소베이커리</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 어양점</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산동부</t>
+  </si>
+  <si>
+    <t>눈들재</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산원광</t>
   </si>
   <si>
     <t>그랜드제과</t>
   </si>
   <si>
+    <t>파리바게뜨 배산</t>
+  </si>
+  <si>
+    <t>파리바게뜨 부송하나</t>
+  </si>
+  <si>
+    <t>홍윤</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산원광</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산고래등</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 모현점</t>
+  </si>
+  <si>
+    <t>안영순</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산동산</t>
+  </si>
+  <si>
     <t>파리바게뜨 익산부송</t>
   </si>
   <si>
-    <t>쿱스토어전북 어양점</t>
-  </si>
-  <si>
-    <t>뚜레쥬르 익산제일</t>
-  </si>
-  <si>
-    <t>크리스피크림도넛(영등점)</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산어양</t>
-  </si>
-  <si>
     <t>던킨도너츠(영등점)</t>
   </si>
   <si>
-    <t>뚜레쥬르 익산원광</t>
-  </si>
-  <si>
-    <t>뚜레쥬르 익산동산</t>
-  </si>
-  <si>
-    <t>파리바게뜨 부송하나</t>
-  </si>
-  <si>
     <t>파리바게뜨 부송제일</t>
-  </si>
-  <si>
-    <t>눈들재</t>
-  </si>
-  <si>
-    <t>뚜레쥬르 익산영등점</t>
-  </si>
-  <si>
-    <t>니코니코 과자점</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산이편한</t>
-  </si>
-  <si>
-    <t>쿱스토어전북 모현점</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산고래등</t>
-  </si>
-  <si>
-    <t>던킨도너츠 익산역점</t>
-  </si>
-  <si>
-    <t>던킨도너츠 원광</t>
-  </si>
-  <si>
-    <t>안영순</t>
-  </si>
-  <si>
-    <t>삼송빵집</t>
   </si>
 </sst>
 </file>
@@ -494,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,44 +504,44 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>72734</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D3">
         <v>2000</v>
       </c>
       <c r="E3">
-        <v>24000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D4">
         <v>2000</v>
       </c>
       <c r="E4">
-        <v>98350</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -567,92 +549,92 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>2000</v>
       </c>
       <c r="E5">
-        <v>28000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>2000</v>
       </c>
       <c r="E6">
-        <v>42455</v>
+        <v>62276</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="D7">
         <v>2000</v>
       </c>
       <c r="E7">
-        <v>20000</v>
+        <v>114900</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D8">
         <v>2000</v>
       </c>
       <c r="E8">
-        <v>18000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
         <v>27</v>
       </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
       <c r="D9">
         <v>2000</v>
       </c>
       <c r="E9">
-        <v>10000</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D10">
         <v>2000</v>
       </c>
       <c r="E10">
-        <v>4000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -660,21 +642,21 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D11">
         <v>2000</v>
       </c>
       <c r="E11">
-        <v>32000</v>
+        <v>61368</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -687,215 +669,155 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13">
-        <v>37</v>
-      </c>
       <c r="D13">
         <v>2000</v>
       </c>
       <c r="E13">
-        <v>74000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D14">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="E14">
-        <v>20000</v>
+        <v>164700</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>2000</v>
       </c>
       <c r="E15">
-        <v>78000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>2000</v>
+      </c>
+      <c r="E16">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>2000</v>
+      </c>
+      <c r="E17">
+        <v>77500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>12</v>
       </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16">
-        <v>56</v>
-      </c>
-      <c r="D16">
-        <v>2000</v>
-      </c>
-      <c r="E16">
-        <v>112000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17">
-        <v>9</v>
-      </c>
-      <c r="D17">
-        <v>2000</v>
-      </c>
-      <c r="E17">
-        <v>63650</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
       <c r="B18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="D18">
         <v>2000</v>
       </c>
       <c r="E18">
-        <v>20000</v>
+        <v>217551</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="B19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>2000</v>
       </c>
       <c r="E19">
-        <v>22000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20">
-        <v>36</v>
-      </c>
       <c r="D20">
         <v>2000</v>
       </c>
       <c r="E20">
-        <v>72000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>2000</v>
       </c>
       <c r="E21">
-        <v>100000</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C22">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>2000</v>
       </c>
       <c r="E22">
-        <v>112000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23">
-        <v>100</v>
-      </c>
-      <c r="D23">
-        <v>2000</v>
-      </c>
-      <c r="E23">
-        <v>573550</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24">
-        <v>35</v>
-      </c>
-      <c r="D24">
-        <v>2000</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-      <c r="D25">
-        <v>2000</v>
-      </c>
-      <c r="E25">
-        <v>17100</v>
+        <v>16000</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="0913" sheetId="1" r:id="rId1"/>
+    <sheet name="1031" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -31,94 +31,82 @@
     <t>Unnamed: 4</t>
   </si>
   <si>
+    <t>꿈꾸는지역아동센터</t>
+  </si>
+  <si>
+    <t>참마음</t>
+  </si>
+  <si>
+    <t>푸른교실지역아동센터</t>
+  </si>
+  <si>
+    <t>참된지역아동센터</t>
+  </si>
+  <si>
     <t>남중지역아동센터</t>
   </si>
   <si>
-    <t>늘사랑</t>
-  </si>
-  <si>
-    <t>덕암</t>
-  </si>
-  <si>
-    <t>삼육지역아동센터</t>
-  </si>
-  <si>
-    <t>새소망단기보호시설</t>
-  </si>
-  <si>
-    <t>새소망주간보호시설</t>
-  </si>
-  <si>
-    <t>영재지역아동센터</t>
-  </si>
-  <si>
     <t>옥야지역아동센터</t>
   </si>
   <si>
     <t>이리성애모자원</t>
   </si>
   <si>
+    <t>파리바게뜨 익산고래등</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산부송</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 모현점</t>
+  </si>
+  <si>
+    <t>쿱스토어전북 어양점</t>
+  </si>
+  <si>
+    <t>파리바게뜨 부송제일</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산제일</t>
+  </si>
+  <si>
+    <t>홍윤</t>
+  </si>
+  <si>
+    <t>파리바게뜨 배산</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산어양</t>
+  </si>
+  <si>
+    <t>파리바게뜨 부송하나</t>
+  </si>
+  <si>
+    <t>그랜드제과</t>
+  </si>
+  <si>
+    <t>뚜레쥬르 익산원광</t>
+  </si>
+  <si>
+    <t>던킨도너츠(영등점)</t>
+  </si>
+  <si>
+    <t>아인스</t>
+  </si>
+  <si>
+    <t>당고</t>
+  </si>
+  <si>
+    <t>안영순</t>
+  </si>
+  <si>
+    <t>파리바게뜨 익산동부</t>
+  </si>
+  <si>
     <t>니코니코 과자점</t>
   </si>
   <si>
-    <t>파리바게뜨 익산어양</t>
-  </si>
-  <si>
-    <t>뚜레쥬르 익산제일</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산이편한</t>
-  </si>
-  <si>
-    <t>오소베이커리</t>
-  </si>
-  <si>
-    <t>쿱스토어전북 어양점</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산동부</t>
-  </si>
-  <si>
-    <t>눈들재</t>
-  </si>
-  <si>
-    <t>뚜레쥬르 익산원광</t>
-  </si>
-  <si>
-    <t>그랜드제과</t>
-  </si>
-  <si>
-    <t>파리바게뜨 배산</t>
-  </si>
-  <si>
-    <t>파리바게뜨 부송하나</t>
-  </si>
-  <si>
-    <t>홍윤</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산원광</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산고래등</t>
-  </si>
-  <si>
-    <t>쿱스토어전북 모현점</t>
-  </si>
-  <si>
-    <t>안영순</t>
-  </si>
-  <si>
     <t>뚜레쥬르 익산동산</t>
-  </si>
-  <si>
-    <t>파리바게뜨 익산부송</t>
-  </si>
-  <si>
-    <t>던킨도너츠(영등점)</t>
-  </si>
-  <si>
-    <t>파리바게뜨 부송제일</t>
   </si>
 </sst>
 </file>
@@ -476,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,106 +492,106 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>2000</v>
       </c>
       <c r="E2">
-        <v>36000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2000</v>
+      </c>
+      <c r="E3">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>69100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>2000</v>
-      </c>
-      <c r="E3">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>2000</v>
-      </c>
-      <c r="E4">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5">
         <v>17</v>
       </c>
-      <c r="C5">
-        <v>72</v>
-      </c>
       <c r="D5">
         <v>2000</v>
       </c>
       <c r="E5">
-        <v>144000</v>
+        <v>91400</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+      <c r="E6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2000</v>
+      </c>
+      <c r="E7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>2000</v>
-      </c>
-      <c r="E6">
-        <v>62276</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>2000</v>
-      </c>
-      <c r="E7">
-        <v>114900</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
       <c r="C8">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>2000</v>
       </c>
       <c r="E8">
-        <v>36000</v>
+        <v>92070</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -611,213 +599,221 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>2000</v>
       </c>
       <c r="E9">
-        <v>54000</v>
+        <v>10636</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="B10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>2000</v>
       </c>
       <c r="E10">
-        <v>20000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>2000</v>
       </c>
       <c r="E11">
-        <v>61368</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>2000</v>
+      </c>
+      <c r="E12">
+        <v>35914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2000</v>
+      </c>
+      <c r="E13">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="C12">
-        <v>14</v>
-      </c>
-      <c r="D12">
-        <v>2000</v>
-      </c>
-      <c r="E12">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>2000</v>
-      </c>
-      <c r="E13">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
       <c r="C14">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="D14">
         <v>2000</v>
       </c>
       <c r="E14">
-        <v>164700</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>2000</v>
+      </c>
+      <c r="E15">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>20000</v>
+      </c>
+      <c r="E16">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
         <v>27</v>
       </c>
-      <c r="C15">
-        <v>7</v>
-      </c>
-      <c r="D15">
-        <v>2000</v>
-      </c>
-      <c r="E15">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>33</v>
-      </c>
-      <c r="D16">
-        <v>2000</v>
-      </c>
-      <c r="E16">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>13</v>
-      </c>
       <c r="D17">
         <v>2000</v>
       </c>
       <c r="E17">
-        <v>77500</v>
+        <v>91530</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>2000</v>
       </c>
       <c r="E18">
-        <v>217551</v>
+        <v>58274</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="B19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="E19">
-        <v>28000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>2000</v>
       </c>
       <c r="E20">
-        <v>28000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="B21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>2000</v>
       </c>
       <c r="E21">
-        <v>36000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="B22" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>2000</v>
       </c>
       <c r="E22">
-        <v>16000</v>
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>20000</v>
+      </c>
+      <c r="E23">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
